--- a/admin/Thống kê hóa đơn.xlsx
+++ b/admin/Thống kê hóa đơn.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Xuất toàn bộ báo cáo" sheetId="1" r:id="rId4"/>
+    <sheet name="Thống kê hóa đơn" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>THÁNG</t>
   </si>
@@ -35,99 +35,24 @@
     <t>THỜI GIAN</t>
   </si>
   <si>
-    <t>250,000</t>
-  </si>
-  <si>
-    <t>2019-03-15</t>
-  </si>
-  <si>
-    <t>04:37:22 pm</t>
-  </si>
-  <si>
-    <t>110,000</t>
-  </si>
-  <si>
-    <t>2019-03-06</t>
-  </si>
-  <si>
-    <t>305,000</t>
-  </si>
-  <si>
-    <t>345,000</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>35,000</t>
+    <t>135,000</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>03:33:07 pm</t>
+  </si>
+  <si>
+    <t>1,501,575,000</t>
+  </si>
+  <si>
+    <t>04:06:33 pm</t>
   </si>
   <si>
     <t>95,000</t>
   </si>
   <si>
-    <t>2019-04-03</t>
-  </si>
-  <si>
-    <t>460,000</t>
-  </si>
-  <si>
-    <t>2019-04-07</t>
-  </si>
-  <si>
-    <t>640,000</t>
-  </si>
-  <si>
-    <t>2019-04-17</t>
-  </si>
-  <si>
-    <t>80,000</t>
-  </si>
-  <si>
-    <t>2019-04-25</t>
-  </si>
-  <si>
-    <t>475,000</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>700,000</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>510,000</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
-  </si>
-  <si>
-    <t>100,000</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>09:50:16 pm</t>
-  </si>
-  <si>
-    <t>135,000</t>
-  </si>
-  <si>
-    <t>2020-07-18</t>
-  </si>
-  <si>
-    <t>03:33:07 pm</t>
-  </si>
-  <si>
-    <t>1,501,575,000</t>
-  </si>
-  <si>
-    <t>04:06:33 pm</t>
-  </si>
-  <si>
     <t>2020-07-25</t>
   </si>
   <si>
@@ -140,13 +65,19 @@
     <t>03:49:26 pm</t>
   </si>
   <si>
+    <t>380,000</t>
+  </si>
+  <si>
+    <t>09:07:02 pm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tổng cộng: </t>
   </si>
   <si>
-    <t>10,113</t>
-  </si>
-  <si>
-    <t>1,506,130,000</t>
+    <t>10,043</t>
+  </si>
+  <si>
+    <t>1,502,405,000</t>
   </si>
 </sst>
 </file>
@@ -500,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F1" sqref="F1"/>
@@ -538,13 +469,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -558,333 +489,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>10014</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10014</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
